--- a/output/fit_clients/fit_round_455.xlsx
+++ b/output/fit_clients/fit_round_455.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1711529441.054006</v>
+        <v>1657185837.722045</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1037875521804584</v>
+        <v>0.1040768157919797</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04314188199601818</v>
+        <v>0.03271789983181664</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>855764677.400082</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2344344167.919496</v>
+        <v>2164940492.800644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1821632954803512</v>
+        <v>0.128835991271024</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04320765970159753</v>
+        <v>0.04550083039945749</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1172172177.373451</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4947632014.00462</v>
+        <v>4726902044.429235</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1165025136414373</v>
+        <v>0.1013962696317952</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03059444323317561</v>
+        <v>0.02809712264025657</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>165</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2473816088.325411</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3282933159.396759</v>
+        <v>2632893969.058219</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09653024173307512</v>
+        <v>0.1045101326884109</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04857628445029081</v>
+        <v>0.04870023431792224</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>168</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1641466630.857293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2381505016.726079</v>
+        <v>2195766335.631322</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09188447646557475</v>
+        <v>0.119775960290982</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05320281112493951</v>
+        <v>0.05648236805361509</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>85</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1190752496.691689</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2010491550.483263</v>
+        <v>2376884128.556822</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06606731037735952</v>
+        <v>0.09476718598408783</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04784508211624407</v>
+        <v>0.04121422106230067</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>144</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1005245835.462455</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3824245854.982748</v>
+        <v>3673466586.371859</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1545875626857257</v>
+        <v>0.1698021403417832</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02091517900812478</v>
+        <v>0.02954085704389399</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>145</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1912123069.285973</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1871086522.051474</v>
+        <v>2135175831.186932</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1912752667986695</v>
+        <v>0.1220978156459067</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0340913632026062</v>
+        <v>0.02922368994970545</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>935543305.5432324</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5048276639.342258</v>
+        <v>4946320713.496738</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1560196616377973</v>
+        <v>0.18119534556285</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04616972122524842</v>
+        <v>0.0362309434200118</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>192</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2524138422.744686</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2864912429.501104</v>
+        <v>2953416570.720192</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1915296772453061</v>
+        <v>0.1171948355699798</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04270746093766419</v>
+        <v>0.03713006717705197</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>188</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1432456148.340801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2612968849.464609</v>
+        <v>2388963840.772929</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1299486223456145</v>
+        <v>0.1451563984888013</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04089184413519997</v>
+        <v>0.036714632715502</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>154</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1306484407.337461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3828681113.750412</v>
+        <v>4132244723.669579</v>
       </c>
       <c r="F13" t="n">
-        <v>0.064776772508918</v>
+        <v>0.100057083902794</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02233807854321396</v>
+        <v>0.02675466439922811</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>153</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1914340620.524219</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3317321514.378785</v>
+        <v>3857015377.607206</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1547123487881273</v>
+        <v>0.1574286135127823</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0320717781210835</v>
+        <v>0.03127647696896542</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>147</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1658660768.670047</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1598194920.434614</v>
+        <v>1229474910.913438</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1040044659312783</v>
+        <v>0.09057711838221441</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03480669855481152</v>
+        <v>0.04284115911499875</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>799097567.9956261</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2118767589.991282</v>
+        <v>2207947453.296509</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09285116639291308</v>
+        <v>0.09787768732809214</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03421746336269414</v>
+        <v>0.03386703776242491</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>93</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1059383859.903536</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3461187922.954976</v>
+        <v>4974982568.859125</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1397450143000548</v>
+        <v>0.1075880307619346</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04954832686677932</v>
+        <v>0.04352816336355889</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1730594022.746682</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3934839234.637316</v>
+        <v>3779913329.92881</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1236989123055701</v>
+        <v>0.1842549133204718</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0271161259696238</v>
+        <v>0.0248522847227348</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>149</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1967419579.886079</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>860790409.1300131</v>
+        <v>1255188588.545265</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1577997355414594</v>
+        <v>0.1359690535729198</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02466201708065198</v>
+        <v>0.02394490261435091</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>430395199.974111</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2500194227.471619</v>
+        <v>2784011754.827637</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1202330989714203</v>
+        <v>0.105489921135394</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02351674128360411</v>
+        <v>0.02891146939832939</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>63</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1250097086.829773</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2535242926.500507</v>
+        <v>2549288084.759783</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06695561926883491</v>
+        <v>0.07847324884168093</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02862900709033756</v>
+        <v>0.04389678161176001</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>35</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1267621448.024409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2569395551.449651</v>
+        <v>2713992127.503907</v>
       </c>
       <c r="F22" t="n">
-        <v>0.102467179344749</v>
+        <v>0.0975273542038096</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04325162604516513</v>
+        <v>0.03780203069050436</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>128</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1284697863.058421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>975833706.2879589</v>
+        <v>1019639566.856832</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1754875390208517</v>
+        <v>0.1736084616236879</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03632647950840121</v>
+        <v>0.04204808770949799</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>487916927.4072703</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2524388119.089294</v>
+        <v>3365495284.39201</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1361539702319294</v>
+        <v>0.0977024409170372</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02318998772928125</v>
+        <v>0.03510832821569307</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>134</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1262194126.774806</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1072048116.641032</v>
+        <v>1011509901.926286</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08602262623190995</v>
+        <v>0.1069332933789083</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02442805195179721</v>
+        <v>0.02657616469746538</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>536024105.7399378</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1105642147.362928</v>
+        <v>1379485300.255304</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1108536083413714</v>
+        <v>0.1114073744252253</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02635474527969384</v>
+        <v>0.03598551499782328</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>552821071.6897267</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3123733749.840698</v>
+        <v>2845598303.058525</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1163977724322784</v>
+        <v>0.1228185619774984</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01697555084891416</v>
+        <v>0.01896348996973123</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1561866928.639815</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2522464015.556623</v>
+        <v>3284784902.357307</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1086593675664781</v>
+        <v>0.1160946267422578</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03437214677318323</v>
+        <v>0.03794519013075697</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>146</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1261231977.59442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5176967501.986443</v>
+        <v>4828865135.56947</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1383047574754797</v>
+        <v>0.127925827143788</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04655057881697263</v>
+        <v>0.03725700274586254</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>201</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2588483686.317297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1537735252.528202</v>
+        <v>2130240761.77756</v>
       </c>
       <c r="F30" t="n">
-        <v>0.101096201759195</v>
+        <v>0.09518819686564733</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03537968788366714</v>
+        <v>0.03092323524640826</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>768867611.0937573</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1079752739.300276</v>
+        <v>965150044.9116418</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09083474564388332</v>
+        <v>0.080445953190823</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04529533953963332</v>
+        <v>0.04797794816581221</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>539876349.4402461</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1302397225.84069</v>
+        <v>1596674837.508532</v>
       </c>
       <c r="F32" t="n">
-        <v>0.10043383691762</v>
+        <v>0.1006253851610951</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03661103191441133</v>
+        <v>0.03416698639218644</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>651198640.3703443</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2956534028.7695</v>
+        <v>2956954357.139409</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1786023615903611</v>
+        <v>0.1282751279998022</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05561805674888506</v>
+        <v>0.04318000034666458</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>140</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1478267013.725321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1458087730.129393</v>
+        <v>1028017543.051968</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1084894967457074</v>
+        <v>0.09136352083586957</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02745340481675678</v>
+        <v>0.02136753492835006</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>729043827.8579342</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1236117477.939584</v>
+        <v>943510371.8338472</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09579707697462307</v>
+        <v>0.0999841511503342</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04361579073835489</v>
+        <v>0.03905591895076952</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>618058705.786713</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2557071214.209458</v>
+        <v>2978157838.20559</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1425807978305619</v>
+        <v>0.1503013626318773</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02410120303662143</v>
+        <v>0.02883734475242567</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>115</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1278535624.539131</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2084654013.840658</v>
+        <v>2280507244.966995</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1100025827403219</v>
+        <v>0.09890577062759179</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03794350195690993</v>
+        <v>0.03907968571739132</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>121</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1042327045.899955</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1750252088.476173</v>
+        <v>1503950669.864164</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1037751048481376</v>
+        <v>0.1033487957810291</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02583729108675928</v>
+        <v>0.03309606984831584</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>875126058.1608145</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2068407950.613431</v>
+        <v>2149428173.255495</v>
       </c>
       <c r="F39" t="n">
-        <v>0.16418155481495</v>
+        <v>0.1760453180517086</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02435249629004754</v>
+        <v>0.02529808577256818</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1034203959.486412</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1507697872.95423</v>
+        <v>1186008960.822753</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1482854440427338</v>
+        <v>0.1047237225478755</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05068396164883791</v>
+        <v>0.0488554138329157</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>753848900.7508323</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1893813928.561162</v>
+        <v>2165310500.410612</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1504701562942711</v>
+        <v>0.1186057162814476</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03039471848671503</v>
+        <v>0.02974405258849972</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>110</v>
-      </c>
-      <c r="J41" t="n">
-        <v>946907048.9658561</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3978794074.677536</v>
+        <v>2728965401.026084</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1225037628536241</v>
+        <v>0.1234302897285625</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04065482175471478</v>
+        <v>0.04303655900031362</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>148</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1989397065.164587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2686353705.252336</v>
+        <v>3033045934.627165</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1543904400747666</v>
+        <v>0.1794096214186559</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01908612758717426</v>
+        <v>0.02207117943003065</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>158</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1343176882.577543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1791766271.630643</v>
+        <v>2234700837.252394</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07631720685469155</v>
+        <v>0.088178168291216</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02863192295968723</v>
+        <v>0.02657591875722464</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>895883200.6245154</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1807143850.14738</v>
+        <v>1579576982.995643</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1309888960323907</v>
+        <v>0.179528490096849</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03997096901381794</v>
+        <v>0.03457246941915727</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>903571896.5641524</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4405215749.992087</v>
+        <v>3732772968.823496</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1558502700646665</v>
+        <v>0.1760136712741033</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06135325875382181</v>
+        <v>0.04577255684039366</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>162</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2202607867.736454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4473233370.367393</v>
+        <v>5121011377.562957</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1724643555349307</v>
+        <v>0.1410576242816898</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04834013497642368</v>
+        <v>0.04251382305655692</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2236616711.160775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4273268765.693978</v>
+        <v>4082043490.062521</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07244095834556703</v>
+        <v>0.09530134181213094</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03021252322696388</v>
+        <v>0.0388336160607689</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>148</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2136634401.354918</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1198768639.417445</v>
+        <v>1340957008.443627</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1322138778949548</v>
+        <v>0.1459994728462402</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02807079821312021</v>
+        <v>0.037773085727717</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>599384398.5833359</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2750135498.027436</v>
+        <v>2789563395.869981</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1547399384528336</v>
+        <v>0.1768319151108189</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04955274155999976</v>
+        <v>0.04895835756598547</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>155</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1375067826.658365</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1095756226.952181</v>
+        <v>1113134999.762</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1586560452124354</v>
+        <v>0.1883062463100151</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05165997494135997</v>
+        <v>0.0463806093590659</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>547878181.9483452</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4713590547.243661</v>
+        <v>3986170048.776459</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1118079220734472</v>
+        <v>0.08910999453723127</v>
       </c>
       <c r="G52" t="n">
-        <v>0.053034491986956</v>
+        <v>0.03839890689731747</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>188</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2356795288.127894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2467292436.656966</v>
+        <v>3315668362.554701</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1988268965318523</v>
+        <v>0.2017331100419485</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03256886906621685</v>
+        <v>0.02926645342050967</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>130</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1233646287.587167</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4771353096.770503</v>
+        <v>4845301312.746688</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1700119580831293</v>
+        <v>0.1613741221131497</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03392335604807834</v>
+        <v>0.04855568227945022</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>148</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2385676673.063396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3874433005.767839</v>
+        <v>3091255498.803064</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2095122754950239</v>
+        <v>0.1745294101073917</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02172742802052826</v>
+        <v>0.0234375075778085</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>123</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1937216472.299861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1666590167.958754</v>
+        <v>1278960421.202972</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1283464393046367</v>
+        <v>0.1181916276002903</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0376758365290412</v>
+        <v>0.04000007427058386</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>833295101.5887311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2771373383.656605</v>
+        <v>3929811246.71788</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1835553485963287</v>
+        <v>0.1164378657126919</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01684582433845657</v>
+        <v>0.01815380022811399</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>145</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1385686677.05642</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1506543453.687053</v>
+        <v>1782210160.151405</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1537125120527739</v>
+        <v>0.1740832766223214</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03178858237827194</v>
+        <v>0.03932196315354153</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>753271757.4025855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4486235324.953232</v>
+        <v>3924149535.950136</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08402216948303712</v>
+        <v>0.1175038083906168</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04835554050910263</v>
+        <v>0.04082544924473345</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2243117614.976023</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2644850628.464273</v>
+        <v>3204400371.67128</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1928973247122412</v>
+        <v>0.1673623590272771</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02051195667151841</v>
+        <v>0.02754362780152378</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1322425347.349676</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2541936532.667043</v>
+        <v>2389827556.435268</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1727524162921602</v>
+        <v>0.1285568049084061</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02419679066922732</v>
+        <v>0.03281931777255363</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>157</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1270968290.017817</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1431080763.550476</v>
+        <v>1496240505.198812</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1586748780364116</v>
+        <v>0.1842942156565793</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04573633988545578</v>
+        <v>0.04874524165334142</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>715540354.4860446</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5279579538.057299</v>
+        <v>3449054950.388802</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08595785368607776</v>
+        <v>0.07396640673194205</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03546877352797964</v>
+        <v>0.03712244569518004</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>130</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2639789774.364447</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5505461434.515302</v>
+        <v>5335771351.271844</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1512969962483711</v>
+        <v>0.1907877368090573</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0303320498656642</v>
+        <v>0.02748108131166106</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>142</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2752730859.019535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3995917312.413148</v>
+        <v>4263373347.662592</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1593836112746478</v>
+        <v>0.1132164004262497</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02720622838988221</v>
+        <v>0.02002769067917576</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>163</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1997958675.054495</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4087467168.763113</v>
+        <v>3806831262.102787</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1286804059779658</v>
+        <v>0.135927972742088</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03866788104697604</v>
+        <v>0.05040642325576639</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2043733562.653941</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3488782171.354306</v>
+        <v>2830442216.070253</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1006250550472407</v>
+        <v>0.06706307618810428</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0338676615678451</v>
+        <v>0.03237554569700078</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>146</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1744391062.604962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3791748953.142387</v>
+        <v>5021040998.09788</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1346514684968616</v>
+        <v>0.1140374589836206</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04505827062825326</v>
+        <v>0.04897091073772204</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>146</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1895874459.771411</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1968407947.804478</v>
+        <v>1597072073.610495</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1323183285813677</v>
+        <v>0.1144174837744313</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04620670817674113</v>
+        <v>0.04244630889710625</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>984203974.7931001</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3274938775.66526</v>
+        <v>2764255876.445815</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08928361522968313</v>
+        <v>0.1019118494168622</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03164389256115006</v>
+        <v>0.04773906446932335</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>131</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1637469382.69345</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5353569460.138522</v>
+        <v>5153819078.315474</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1818737439084868</v>
+        <v>0.1150587230045282</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0341045101788182</v>
+        <v>0.03345511982151311</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>166</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2676784862.193256</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1990912542.247436</v>
+        <v>1463028080.541685</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07655366949954336</v>
+        <v>0.08954046534454062</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03676232961338485</v>
+        <v>0.04788918576108421</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>995456218.9254836</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2249715470.990814</v>
+        <v>2275444804.553067</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08827657427842257</v>
+        <v>0.110190691964845</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0447237695866993</v>
+        <v>0.03866828747747812</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>173</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1124857800.207239</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3451045854.084729</v>
+        <v>2750576616.35308</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1527445014631975</v>
+        <v>0.1496782642036194</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02661189479642254</v>
+        <v>0.02546250798979253</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>155</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1725522953.487722</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1622066585.686029</v>
+        <v>1873618362.928931</v>
       </c>
       <c r="F75" t="n">
-        <v>0.151843838312172</v>
+        <v>0.1095003347226161</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03118307130862155</v>
+        <v>0.03027729012334193</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>811033292.4440283</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5009445006.965308</v>
+        <v>3440599912.314924</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09110003497890594</v>
+        <v>0.07841220942489451</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02841611339852958</v>
+        <v>0.03340048240368072</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2504722530.568402</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2284712548.519907</v>
+        <v>1945578006.935279</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1253775555156035</v>
+        <v>0.1730628970877507</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02913752926518707</v>
+        <v>0.02218531655137058</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1142356377.818961</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4659496824.896989</v>
+        <v>3018807585.476291</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1267037131206823</v>
+        <v>0.1359860198881939</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05507296021365748</v>
+        <v>0.0473755834722817</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>158</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2329748330.996725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1242074290.68906</v>
+        <v>1914967910.431993</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1289227969244429</v>
+        <v>0.1639724241845252</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0291444721045935</v>
+        <v>0.03054562006480897</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>621037134.4658157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4855225615.751223</v>
+        <v>4260709874.851304</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1074983152549815</v>
+        <v>0.09475172225689905</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03598750158675441</v>
+        <v>0.02487734361254822</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>99</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2427612849.893537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5161417028.094913</v>
+        <v>4760989011.590468</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1374870584212584</v>
+        <v>0.103909281536179</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02295521943859247</v>
+        <v>0.02185603158528113</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>105</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2580708520.404744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4495573141.622437</v>
+        <v>3920218185.011819</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1850912403794615</v>
+        <v>0.1879821559079453</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01977648050398589</v>
+        <v>0.0273168756713122</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>159</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2247786582.937925</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2251061850.590896</v>
+        <v>1726959757.329453</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1059307090568019</v>
+        <v>0.1445515377791234</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04113719528137292</v>
+        <v>0.0318872947371671</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1125530941.901898</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1632088765.73672</v>
+        <v>2204405568.689791</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1108269359878009</v>
+        <v>0.1108858111182907</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03654646803500571</v>
+        <v>0.03704592024955148</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>816044441.7454882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3373727844.487063</v>
+        <v>3480308777.101408</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1281171556626316</v>
+        <v>0.1204703712148878</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05218406650112506</v>
+        <v>0.05048142671240177</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>170</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1686864023.701808</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1939763218.798801</v>
+        <v>2708161781.022938</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1514486494470521</v>
+        <v>0.1132356013552399</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02287030598374517</v>
+        <v>0.02629443731938053</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>56</v>
-      </c>
-      <c r="J86" t="n">
-        <v>969881628.6587045</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1072099598.252659</v>
+        <v>1193631208.431474</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1812279783170841</v>
+        <v>0.1293699207770272</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03221679937589696</v>
+        <v>0.03336380286859139</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>536049821.9684466</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3195202234.610535</v>
+        <v>2863307031.14993</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1241338873164948</v>
+        <v>0.114009980566695</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02986788793965784</v>
+        <v>0.02597855143765667</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>181</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1597601167.057419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2378526697.31048</v>
+        <v>2992893301.77505</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1008421785296251</v>
+        <v>0.110064789773531</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02795135435564443</v>
+        <v>0.03995839328998682</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>154</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1189263432.329841</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1507483726.680499</v>
+        <v>1668232308.594168</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1383892201488878</v>
+        <v>0.1199267000091219</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04159303566601539</v>
+        <v>0.05110158150145964</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>753741843.4966615</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1694351820.964224</v>
+        <v>1679109407.515434</v>
       </c>
       <c r="F91" t="n">
-        <v>0.191486873131305</v>
+        <v>0.1334238117285919</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06160589204596224</v>
+        <v>0.0464608923038002</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>847175923.5363331</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1958395421.920041</v>
+        <v>2794668911.019154</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08257697962638881</v>
+        <v>0.07885228151424013</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04271707754324236</v>
+        <v>0.04533498912189372</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>126</v>
-      </c>
-      <c r="J92" t="n">
-        <v>979197654.0028286</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3610994197.133555</v>
+        <v>3676797914.812359</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1065262344107418</v>
+        <v>0.1339734491279332</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04212676313381275</v>
+        <v>0.04304234652754112</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>139</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1805497124.367735</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1793381857.069628</v>
+        <v>1802669555.338</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1393557841784483</v>
+        <v>0.1511544433312044</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02772421610234108</v>
+        <v>0.0349128531766944</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>896690899.9992598</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2016674767.84731</v>
+        <v>3229997349.528935</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1003274326179918</v>
+        <v>0.1103445633734496</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03494375741656276</v>
+        <v>0.03697501530854879</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>109</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1008337455.189611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2226741751.0781</v>
+        <v>2382759207.328871</v>
       </c>
       <c r="F96" t="n">
-        <v>0.107687256548294</v>
+        <v>0.09047496360410409</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03119046773612713</v>
+        <v>0.03321629731095817</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1113370838.351705</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4577810190.767859</v>
+        <v>5054030936.584636</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1691165265268237</v>
+        <v>0.1374733668278156</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02088640083792649</v>
+        <v>0.0210672440311509</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>147</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2288905198.244355</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2492502739.394013</v>
+        <v>2428730495.448924</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0833426576911616</v>
+        <v>0.1204776964041815</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01991986187059734</v>
+        <v>0.03194298930505589</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1246251319.98836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2528462661.812553</v>
+        <v>3147759203.045449</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1239717797114775</v>
+        <v>0.1358741252162903</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02901462103348354</v>
+        <v>0.03457623674630339</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>144</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1264231282.684396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3230659130.59985</v>
+        <v>3100840904.008619</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1441253632800292</v>
+        <v>0.1328370043223937</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02714351734995169</v>
+        <v>0.02687213193798459</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>140</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1615329574.563539</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2831890737.042377</v>
+        <v>3052145406.254787</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1600661354007354</v>
+        <v>0.1468411489978798</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03776313839854361</v>
+        <v>0.05179141636642078</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>187</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1415945435.386662</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_455.xlsx
+++ b/output/fit_clients/fit_round_455.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1657185837.722045</v>
+        <v>2417013757.767778</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1040768157919797</v>
+        <v>0.1047914866579591</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03271789983181664</v>
+        <v>0.03875121934620526</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2164940492.800644</v>
+        <v>2248991173.003278</v>
       </c>
       <c r="F3" t="n">
-        <v>0.128835991271024</v>
+        <v>0.1650583569061872</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04550083039945749</v>
+        <v>0.04330532237772952</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4726902044.429235</v>
+        <v>5134608186.904137</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1013962696317952</v>
+        <v>0.1276836086262781</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02809712264025657</v>
+        <v>0.02849216255424144</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2632893969.058219</v>
+        <v>3680474001.012863</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1045101326884109</v>
+        <v>0.06683600291351892</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04870023431792224</v>
+        <v>0.03395231090163829</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2195766335.631322</v>
+        <v>2787232985.531682</v>
       </c>
       <c r="F6" t="n">
-        <v>0.119775960290982</v>
+        <v>0.1365245576388652</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05648236805361509</v>
+        <v>0.0363391608077303</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2376884128.556822</v>
+        <v>2213387168.622431</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09476718598408783</v>
+        <v>0.07980713189377546</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04121422106230067</v>
+        <v>0.04318884030907152</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3673466586.371859</v>
+        <v>2729327531.251561</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1698021403417832</v>
+        <v>0.1653327897552796</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02954085704389399</v>
+        <v>0.02491177343394375</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2135175831.186932</v>
+        <v>1524330871.971841</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1220978156459067</v>
+        <v>0.1965252217042577</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02922368994970545</v>
+        <v>0.03148018626564796</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4946320713.496738</v>
+        <v>3980729570.103549</v>
       </c>
       <c r="F10" t="n">
-        <v>0.18119534556285</v>
+        <v>0.1952898069909717</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0362309434200118</v>
+        <v>0.04933257257792077</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2953416570.720192</v>
+        <v>4163949944.243581</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1171948355699798</v>
+        <v>0.1606242273077715</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03713006717705197</v>
+        <v>0.04302463570249569</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2388963840.772929</v>
+        <v>2194998681.373622</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1451563984888013</v>
+        <v>0.126265546465334</v>
       </c>
       <c r="G12" t="n">
-        <v>0.036714632715502</v>
+        <v>0.03717244941570173</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4132244723.669579</v>
+        <v>4491873500.637548</v>
       </c>
       <c r="F13" t="n">
-        <v>0.100057083902794</v>
+        <v>0.07312613721817368</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02675466439922811</v>
+        <v>0.02052781621276366</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3857015377.607206</v>
+        <v>3350909205.960968</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1574286135127823</v>
+        <v>0.1231790985440129</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03127647696896542</v>
+        <v>0.0343938379207691</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1229474910.913438</v>
+        <v>1487678298.811085</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09057711838221441</v>
+        <v>0.06935771538657895</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04284115911499875</v>
+        <v>0.0364653541410869</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2207947453.296509</v>
+        <v>2846935062.253492</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09787768732809214</v>
+        <v>0.1147204069275701</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03386703776242491</v>
+        <v>0.03666495116912179</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4974982568.859125</v>
+        <v>3778567540.743917</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1075880307619346</v>
+        <v>0.1314792545651869</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04352816336355889</v>
+        <v>0.03879318379735655</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3779913329.92881</v>
+        <v>2970305046.117638</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1842549133204718</v>
+        <v>0.1450450027267028</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0248522847227348</v>
+        <v>0.03150302626815009</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1255188588.545265</v>
+        <v>1290401537.644039</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1359690535729198</v>
+        <v>0.1485187721889499</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02394490261435091</v>
+        <v>0.02650799594696881</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2784011754.827637</v>
+        <v>1922637696.537499</v>
       </c>
       <c r="F20" t="n">
-        <v>0.105489921135394</v>
+        <v>0.1470342174391896</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02891146939832939</v>
+        <v>0.02729059907426112</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2549288084.759783</v>
+        <v>2186892643.508622</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07847324884168093</v>
+        <v>0.09307463003668627</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04389678161176001</v>
+        <v>0.04267595396296624</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2713992127.503907</v>
+        <v>2467592567.862538</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0975273542038096</v>
+        <v>0.121241487409917</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03780203069050436</v>
+        <v>0.04858999429261273</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1019639566.856832</v>
+        <v>1361459463.802423</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1736084616236879</v>
+        <v>0.1709183948995258</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04204808770949799</v>
+        <v>0.04150059335828666</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3365495284.39201</v>
+        <v>2742950932.935195</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0977024409170372</v>
+        <v>0.1367695656021808</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03510832821569307</v>
+        <v>0.03575501653502744</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1011509901.926286</v>
+        <v>981147454.5971017</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1069332933789083</v>
+        <v>0.1004096672605886</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02657616469746538</v>
+        <v>0.02961340070532981</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1379485300.255304</v>
+        <v>888301580.9234781</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1114073744252253</v>
+        <v>0.07845338864848653</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03598551499782328</v>
+        <v>0.02545821812003468</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2845598303.058525</v>
+        <v>4300073704.092842</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1228185619774984</v>
+        <v>0.1290565332361145</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01896348996973123</v>
+        <v>0.026567838184372</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3284784902.357307</v>
+        <v>3855559681.236739</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1160946267422578</v>
+        <v>0.1125380143439416</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03794519013075697</v>
+        <v>0.03688097390980802</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4828865135.56947</v>
+        <v>3989661821.130886</v>
       </c>
       <c r="F29" t="n">
-        <v>0.127925827143788</v>
+        <v>0.145555625737038</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03725700274586254</v>
+        <v>0.04268519968566142</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2130240761.77756</v>
+        <v>1967897830.228414</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09518819686564733</v>
+        <v>0.09232363440753254</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03092323524640826</v>
+        <v>0.03092977233050024</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>965150044.9116418</v>
+        <v>1226069277.033802</v>
       </c>
       <c r="F31" t="n">
-        <v>0.080445953190823</v>
+        <v>0.1032326279356928</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04797794816581221</v>
+        <v>0.03901860803652629</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1596674837.508532</v>
+        <v>1661946155.465112</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1006253851610951</v>
+        <v>0.09347249423023171</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03416698639218644</v>
+        <v>0.02417680559291948</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2956954357.139409</v>
+        <v>1959604077.812856</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1282751279998022</v>
+        <v>0.1957167988493332</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04318000034666458</v>
+        <v>0.04134966025351839</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1028017543.051968</v>
+        <v>1508173500.311209</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09136352083586957</v>
+        <v>0.08781563353279569</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02136753492835006</v>
+        <v>0.0234480454417078</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>943510371.8338472</v>
+        <v>1095327910.946416</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0999841511503342</v>
+        <v>0.0920711094489374</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03905591895076952</v>
+        <v>0.02889315191626882</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2978157838.20559</v>
+        <v>2678025196.713115</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1503013626318773</v>
+        <v>0.1511401885533646</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02883734475242567</v>
+        <v>0.02013319367590351</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2280507244.966995</v>
+        <v>2225455681.215839</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09890577062759179</v>
+        <v>0.07378347082707123</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03907968571739132</v>
+        <v>0.03531110226280459</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1503950669.864164</v>
+        <v>1506896298.084114</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1033487957810291</v>
+        <v>0.1065299428731157</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03309606984831584</v>
+        <v>0.03379797875979317</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2149428173.255495</v>
+        <v>1385523033.808151</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1760453180517086</v>
+        <v>0.1501641955600388</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02529808577256818</v>
+        <v>0.02612555709331517</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1186008960.822753</v>
+        <v>1448718433.64975</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1047237225478755</v>
+        <v>0.1249989455229083</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0488554138329157</v>
+        <v>0.04957227517168043</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2165310500.410612</v>
+        <v>1882393992.649473</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1186057162814476</v>
+        <v>0.1049433224939239</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02974405258849972</v>
+        <v>0.03975705639619305</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2728965401.026084</v>
+        <v>4266841296.962498</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1234302897285625</v>
+        <v>0.1158870442383542</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04303655900031362</v>
+        <v>0.03643897146221588</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3033045934.627165</v>
+        <v>2754015943.12154</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1794096214186559</v>
+        <v>0.1672202896719427</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02207117943003065</v>
+        <v>0.01933944167214866</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2234700837.252394</v>
+        <v>1667133900.863855</v>
       </c>
       <c r="F44" t="n">
-        <v>0.088178168291216</v>
+        <v>0.08808205279704812</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02657591875722464</v>
+        <v>0.02319694659157481</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1579576982.995643</v>
+        <v>2509149348.371251</v>
       </c>
       <c r="F45" t="n">
-        <v>0.179528490096849</v>
+        <v>0.1909633061727037</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03457246941915727</v>
+        <v>0.05349198530726843</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3732772968.823496</v>
+        <v>3878843413.453024</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1760136712741033</v>
+        <v>0.1422236714124077</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04577255684039366</v>
+        <v>0.06062394687006058</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5121011377.562957</v>
+        <v>4914218038.504555</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1410576242816898</v>
+        <v>0.1844989438783422</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04251382305655692</v>
+        <v>0.04416071705673912</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4082043490.062521</v>
+        <v>4006692602.80356</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09530134181213094</v>
+        <v>0.1081783611903589</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0388336160607689</v>
+        <v>0.03167586219335785</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1340957008.443627</v>
+        <v>1683254325.552018</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1459994728462402</v>
+        <v>0.1363135450648047</v>
       </c>
       <c r="G49" t="n">
-        <v>0.037773085727717</v>
+        <v>0.03689214027164651</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2789563395.869981</v>
+        <v>2657343968.010571</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1768319151108189</v>
+        <v>0.1783487728688559</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04895835756598547</v>
+        <v>0.05301384228247834</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1113134999.762</v>
+        <v>1214508556.141638</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1883062463100151</v>
+        <v>0.119968870426435</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0463806093590659</v>
+        <v>0.0532072455793024</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3986170048.776459</v>
+        <v>3697047690.191538</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08910999453723127</v>
+        <v>0.1352000888366394</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03839890689731747</v>
+        <v>0.03761294017908531</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3315668362.554701</v>
+        <v>2950589047.089625</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2017331100419485</v>
+        <v>0.1711361731112019</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02926645342050967</v>
+        <v>0.0285313236158593</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4845301312.746688</v>
+        <v>3678471246.787535</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1613741221131497</v>
+        <v>0.1171418345649044</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04855568227945022</v>
+        <v>0.05057214533553406</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3091255498.803064</v>
+        <v>3700282939.366251</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1745294101073917</v>
+        <v>0.1822945815810345</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0234375075778085</v>
+        <v>0.02402804308771661</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1278960421.202972</v>
+        <v>1384228875.73881</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1181916276002903</v>
+        <v>0.1536024276769487</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04000007427058386</v>
+        <v>0.04306280746087567</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3929811246.71788</v>
+        <v>3127830207.619508</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1164378657126919</v>
+        <v>0.1547803572490991</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01815380022811399</v>
+        <v>0.02749195740632206</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1782210160.151405</v>
+        <v>1521713639.357465</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1740832766223214</v>
+        <v>0.1795754017724157</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03932196315354153</v>
+        <v>0.03067363269386094</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3924149535.950136</v>
+        <v>5118768799.821543</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1175038083906168</v>
+        <v>0.1197109068815911</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04082544924473345</v>
+        <v>0.03624564418400129</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3204400371.67128</v>
+        <v>3324694454.969845</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1673623590272771</v>
+        <v>0.15541422700276</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02754362780152378</v>
+        <v>0.02743595864960118</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2389827556.435268</v>
+        <v>3370186728.193375</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1285568049084061</v>
+        <v>0.1390768236239346</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03281931777255363</v>
+        <v>0.02252009796030841</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1496240505.198812</v>
+        <v>1577840066.911927</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1842942156565793</v>
+        <v>0.1830199504980676</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04874524165334142</v>
+        <v>0.03170521853417375</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3449054950.388802</v>
+        <v>3528410285.157096</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07396640673194205</v>
+        <v>0.06518691290410868</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03712244569518004</v>
+        <v>0.03464325167175134</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5335771351.271844</v>
+        <v>5081863921.410533</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1907877368090573</v>
+        <v>0.1798607142988335</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02748108131166106</v>
+        <v>0.02607632557573022</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4263373347.662592</v>
+        <v>3764028847.602927</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1132164004262497</v>
+        <v>0.1461324479417489</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02002769067917576</v>
+        <v>0.03177419127072532</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3806831262.102787</v>
+        <v>4918374675.489194</v>
       </c>
       <c r="F66" t="n">
-        <v>0.135927972742088</v>
+        <v>0.13516369976923</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05040642325576639</v>
+        <v>0.03484196547194375</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2830442216.070253</v>
+        <v>2803877935.236454</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06706307618810428</v>
+        <v>0.08201970901802917</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03237554569700078</v>
+        <v>0.03360250609518929</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5021040998.09788</v>
+        <v>5989351043.287861</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1140374589836206</v>
+        <v>0.1311430367756976</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04897091073772204</v>
+        <v>0.03582465282182003</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1597072073.610495</v>
+        <v>1524773874.036269</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1144174837744313</v>
+        <v>0.1681482913747593</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04244630889710625</v>
+        <v>0.04804925835890008</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2764255876.445815</v>
+        <v>3427841965.807286</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1019118494168622</v>
+        <v>0.06822362334215662</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04773906446932335</v>
+        <v>0.03579703350268788</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5153819078.315474</v>
+        <v>3491972208.75744</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1150587230045282</v>
+        <v>0.1627294026849274</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03345511982151311</v>
+        <v>0.02773860384184295</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1463028080.541685</v>
+        <v>2084211730.226025</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08954046534454062</v>
+        <v>0.08406666472942255</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04788918576108421</v>
+        <v>0.04856764524990621</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2275444804.553067</v>
+        <v>2996600422.310235</v>
       </c>
       <c r="F73" t="n">
-        <v>0.110190691964845</v>
+        <v>0.07837428738851607</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03866828747747812</v>
+        <v>0.05213875395013991</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2750576616.35308</v>
+        <v>2609875354.081122</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1496782642036194</v>
+        <v>0.1486805003894151</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02546250798979253</v>
+        <v>0.02784424851885873</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1873618362.928931</v>
+        <v>2296268715.72801</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1095003347226161</v>
+        <v>0.1533616028228546</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03027729012334193</v>
+        <v>0.0301352084115981</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3440599912.314924</v>
+        <v>4813835114.897551</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07841220942489451</v>
+        <v>0.08935686384563131</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03340048240368072</v>
+        <v>0.02988757011763117</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1945578006.935279</v>
+        <v>2140793925.780173</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1730628970877507</v>
+        <v>0.134680433211497</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02218531655137058</v>
+        <v>0.01910796561950101</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3018807585.476291</v>
+        <v>4402063027.243351</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1359860198881939</v>
+        <v>0.09080685485390838</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0473755834722817</v>
+        <v>0.05285427598527161</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1914967910.431993</v>
+        <v>1822189842.68138</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1639724241845252</v>
+        <v>0.1682795846720116</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03054562006480897</v>
+        <v>0.02842468313073093</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4260709874.851304</v>
+        <v>5176582075.757261</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09475172225689905</v>
+        <v>0.07889003367463572</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02487734361254822</v>
+        <v>0.02762450542516823</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4760989011.590468</v>
+        <v>5163022924.721264</v>
       </c>
       <c r="F81" t="n">
-        <v>0.103909281536179</v>
+        <v>0.1291988198311631</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02185603158528113</v>
+        <v>0.03075038502668545</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3920218185.011819</v>
+        <v>4812538999.712072</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1879821559079453</v>
+        <v>0.1355314798791726</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0273168756713122</v>
+        <v>0.02737860258126822</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1726959757.329453</v>
+        <v>2338637114.077339</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1445515377791234</v>
+        <v>0.1045201996239128</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0318872947371671</v>
+        <v>0.04042895493525755</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2204405568.689791</v>
+        <v>1627621720.636672</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1108858111182907</v>
+        <v>0.1017019084477462</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03704592024955148</v>
+        <v>0.04406321872605488</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3480308777.101408</v>
+        <v>2666098103.94521</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1204703712148878</v>
+        <v>0.148030618914343</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05048142671240177</v>
+        <v>0.05339078653787789</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2708161781.022938</v>
+        <v>2743511762.227047</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1132356013552399</v>
+        <v>0.1686733284357782</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02629443731938053</v>
+        <v>0.01942048676623459</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1193631208.431474</v>
+        <v>953694273.5951607</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1293699207770272</v>
+        <v>0.1542216964714916</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03336380286859139</v>
+        <v>0.03841600905429158</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2863307031.14993</v>
+        <v>3185114205.477596</v>
       </c>
       <c r="F88" t="n">
-        <v>0.114009980566695</v>
+        <v>0.1619472656980807</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02597855143765667</v>
+        <v>0.0278588100207988</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2992893301.77505</v>
+        <v>3425910970.966711</v>
       </c>
       <c r="F89" t="n">
-        <v>0.110064789773531</v>
+        <v>0.160042951146039</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03995839328998682</v>
+        <v>0.02551707886101858</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1668232308.594168</v>
+        <v>1628012240.346895</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1199267000091219</v>
+        <v>0.1185910376586017</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05110158150145964</v>
+        <v>0.04821181356374861</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1679109407.515434</v>
+        <v>1820492366.494608</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1334238117285919</v>
+        <v>0.1685961226599695</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0464608923038002</v>
+        <v>0.04240194627546338</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2794668911.019154</v>
+        <v>2638956859.774404</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07885228151424013</v>
+        <v>0.07673049455919786</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04533498912189372</v>
+        <v>0.0394237235588477</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3676797914.812359</v>
+        <v>4496573955.057771</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1339734491279332</v>
+        <v>0.1110665606617904</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04304234652754112</v>
+        <v>0.03675097480617865</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1802669555.338</v>
+        <v>1715322770.905932</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1511544433312044</v>
+        <v>0.1143490286612378</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0349128531766944</v>
+        <v>0.04290100680761144</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3229997349.528935</v>
+        <v>2756083152.742477</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1103445633734496</v>
+        <v>0.1048316068183646</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03697501530854879</v>
+        <v>0.04485366118634745</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2382759207.328871</v>
+        <v>2247920196.463336</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09047496360410409</v>
+        <v>0.1008643982683743</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03321629731095817</v>
+        <v>0.03321538723507707</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5054030936.584636</v>
+        <v>3310987649.402369</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1374733668278156</v>
+        <v>0.1727562356636674</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0210672440311509</v>
+        <v>0.02290296986186804</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2428730495.448924</v>
+        <v>3275012016.826146</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1204776964041815</v>
+        <v>0.1130503592476362</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03194298930505589</v>
+        <v>0.02842916986008896</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3147759203.045449</v>
+        <v>2847353861.197021</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1358741252162903</v>
+        <v>0.1282976305438056</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03457623674630339</v>
+        <v>0.0286119500936954</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3100840904.008619</v>
+        <v>2999541079.132009</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1328370043223937</v>
+        <v>0.1247685963463599</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02687213193798459</v>
+        <v>0.01765488975214568</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3052145406.254787</v>
+        <v>3092661772.299279</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1468411489978798</v>
+        <v>0.204881173902007</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05179141636642078</v>
+        <v>0.0403204609128795</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_455.xlsx
+++ b/output/fit_clients/fit_round_455.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2417013757.767778</v>
+        <v>2051963629.235236</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1047914866579591</v>
+        <v>0.1073096290728466</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03875121934620526</v>
+        <v>0.04441557679047772</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2248991173.003278</v>
+        <v>1979679888.287382</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1650583569061872</v>
+        <v>0.1211073315932863</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04330532237772952</v>
+        <v>0.03098523000931173</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5134608186.904137</v>
+        <v>5196078439.552214</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1276836086262781</v>
+        <v>0.1492864239553138</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02849216255424144</v>
+        <v>0.03807077144699492</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>230</v>
+      </c>
+      <c r="J4" t="n">
+        <v>455</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3680474001.012863</v>
+        <v>3726822691.552941</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06683600291351892</v>
+        <v>0.07318540701104011</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03395231090163829</v>
+        <v>0.04565186865574686</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>191</v>
+      </c>
+      <c r="J5" t="n">
+        <v>455</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40.68946074805294</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2787232985.531682</v>
+        <v>2673268672.02517</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1365245576388652</v>
+        <v>0.1366910838250761</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0363391608077303</v>
+        <v>0.03529600916719063</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2213387168.622431</v>
+        <v>2706140732.945109</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07980713189377546</v>
+        <v>0.08883442071395349</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04318884030907152</v>
+        <v>0.03528872813721958</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2729327531.251561</v>
+        <v>2593540125.720576</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1653327897552796</v>
+        <v>0.1329879897845812</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02491177343394375</v>
+        <v>0.03328797780208496</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>128</v>
+      </c>
+      <c r="J8" t="n">
+        <v>454</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22.53820965394759</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1524330871.971841</v>
+        <v>2126296993.91283</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1965252217042577</v>
+        <v>0.1512129380080453</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03148018626564796</v>
+        <v>0.02795009983332538</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3980729570.103549</v>
+        <v>4506214907.549326</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1952898069909717</v>
+        <v>0.1713898243338442</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04933257257792077</v>
+        <v>0.04159653878350066</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>352</v>
+      </c>
+      <c r="J10" t="n">
+        <v>455</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4163949944.243581</v>
+        <v>3949088787.507823</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1606242273077715</v>
+        <v>0.1602848963841292</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04302463570249569</v>
+        <v>0.04329072834683349</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>188</v>
+      </c>
+      <c r="J11" t="n">
+        <v>455</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2194998681.373622</v>
+        <v>3236908234.237574</v>
       </c>
       <c r="F12" t="n">
-        <v>0.126265546465334</v>
+        <v>0.1266434803439972</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03717244941570173</v>
+        <v>0.0451595483410449</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4491873500.637548</v>
+        <v>4886897793.707379</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07312613721817368</v>
+        <v>0.08875384197926202</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02052781621276366</v>
+        <v>0.02538130671501078</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>236</v>
+      </c>
+      <c r="J13" t="n">
+        <v>455</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3350909205.960968</v>
+        <v>3253785108.394325</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1231790985440129</v>
+        <v>0.1360557609247466</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0343938379207691</v>
+        <v>0.03246096879342216</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>99</v>
+      </c>
+      <c r="J14" t="n">
+        <v>452</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1487678298.811085</v>
+        <v>1113668649.279754</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06935771538657895</v>
+        <v>0.08996140395403839</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0364653541410869</v>
+        <v>0.04356493634570392</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2846935062.253492</v>
+        <v>2160415612.694669</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1147204069275701</v>
+        <v>0.1083522430330213</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03666495116912179</v>
+        <v>0.03906930109394932</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1030,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3778567540.743917</v>
+        <v>3513833882.697318</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1314792545651869</v>
+        <v>0.1535088964072838</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03879318379735655</v>
+        <v>0.05218973171165903</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>222</v>
+      </c>
+      <c r="J17" t="n">
+        <v>454</v>
+      </c>
+      <c r="K17" t="n">
+        <v>29.80480268197805</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2970305046.117638</v>
+        <v>3478900042.089007</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1450450027267028</v>
+        <v>0.1809486441411144</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03150302626815009</v>
+        <v>0.02653491971330846</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>122</v>
+      </c>
+      <c r="J18" t="n">
+        <v>452</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1290401537.644039</v>
+        <v>1252460538.511242</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1485187721889499</v>
+        <v>0.1200951034843667</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02650799594696881</v>
+        <v>0.02168847574463246</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1922637696.537499</v>
+        <v>2647998077.242569</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1470342174391896</v>
+        <v>0.117266133610033</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02729059907426112</v>
+        <v>0.02098836620208143</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2186892643.508622</v>
+        <v>2531815377.179978</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09307463003668627</v>
+        <v>0.1022220745408634</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04267595396296624</v>
+        <v>0.045368046045157</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2467592567.862538</v>
+        <v>3312105297.164874</v>
       </c>
       <c r="F22" t="n">
-        <v>0.121241487409917</v>
+        <v>0.1410008445279231</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04858999429261273</v>
+        <v>0.05661384821202859</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>131</v>
+      </c>
+      <c r="J22" t="n">
+        <v>449</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1361459463.802423</v>
+        <v>1389676247.592277</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1709183948995258</v>
+        <v>0.1639244059883632</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04150059335828666</v>
+        <v>0.0479397242078295</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2742950932.935195</v>
+        <v>3552611279.075508</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1367695656021808</v>
+        <v>0.1163705411178757</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03575501653502744</v>
+        <v>0.0306112006681558</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>144</v>
+      </c>
+      <c r="J24" t="n">
+        <v>453</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>981147454.5971017</v>
+        <v>1055432713.709015</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1004096672605886</v>
+        <v>0.07638065734578228</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02961340070532981</v>
+        <v>0.02781731259747166</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>888301580.9234781</v>
+        <v>1201715794.510931</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07845338864848653</v>
+        <v>0.09019055310616075</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02545821812003468</v>
+        <v>0.03808543241912953</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4300073704.092842</v>
+        <v>4527955434.229898</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1290565332361145</v>
+        <v>0.1521085522183827</v>
       </c>
       <c r="G27" t="n">
-        <v>0.026567838184372</v>
+        <v>0.01771154976558875</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>198</v>
+      </c>
+      <c r="J27" t="n">
+        <v>455</v>
+      </c>
+      <c r="K27" t="n">
+        <v>37.05787601029903</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3855559681.236739</v>
+        <v>3254906398.856848</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1125380143439416</v>
+        <v>0.1050622333617878</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03688097390980802</v>
+        <v>0.04597139143766155</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>110</v>
+      </c>
+      <c r="J28" t="n">
+        <v>455</v>
+      </c>
+      <c r="K28" t="n">
+        <v>43.1950261438183</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3989661821.130886</v>
+        <v>4725022911.445264</v>
       </c>
       <c r="F29" t="n">
-        <v>0.145555625737038</v>
+        <v>0.1513393020563455</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04268519968566142</v>
+        <v>0.03040669796146268</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>368</v>
+      </c>
+      <c r="J29" t="n">
+        <v>455</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1967897830.228414</v>
+        <v>2104717678.469012</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09232363440753254</v>
+        <v>0.1171322741315613</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03092977233050024</v>
+        <v>0.0313018763693023</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1226069277.033802</v>
+        <v>1168180633.310678</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1032326279356928</v>
+        <v>0.1044626459033346</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03901860803652629</v>
+        <v>0.05179259271681644</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1661946155.465112</v>
+        <v>1653643896.053538</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09347249423023171</v>
+        <v>0.1179962102928914</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02417680559291948</v>
+        <v>0.03424607313141878</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1959604077.812856</v>
+        <v>2646654118.731755</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1957167988493332</v>
+        <v>0.1701110526044251</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04134966025351839</v>
+        <v>0.04093064606913024</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1508173500.311209</v>
+        <v>1499070865.070082</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08781563353279569</v>
+        <v>0.09231489259687221</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0234480454417078</v>
+        <v>0.0247088512026923</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1095327910.946416</v>
+        <v>1010437448.087581</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0920711094489374</v>
+        <v>0.07889306876410682</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02889315191626882</v>
+        <v>0.02768485612192972</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2678025196.713115</v>
+        <v>2400703136.85464</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1511401885533646</v>
+        <v>0.1467487070491148</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02013319367590351</v>
+        <v>0.02177289776809719</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2225455681.215839</v>
+        <v>2051314252.266643</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07378347082707123</v>
+        <v>0.1124244092719093</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03531110226280459</v>
+        <v>0.0367389238554088</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1506896298.084114</v>
+        <v>1602682826.472288</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1065299428731157</v>
+        <v>0.09721743593544738</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03379797875979317</v>
+        <v>0.02637373787234298</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1385523033.808151</v>
+        <v>2080906873.882665</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1501641955600388</v>
+        <v>0.1856371740795881</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02612555709331517</v>
+        <v>0.02269226938580366</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1448718433.64975</v>
+        <v>1547924896.205664</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1249989455229083</v>
+        <v>0.1383322735383782</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04957227517168043</v>
+        <v>0.04849934342005424</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1882393992.649473</v>
+        <v>1981877042.171501</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1049433224939239</v>
+        <v>0.1321302792030889</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03975705639619305</v>
+        <v>0.04083972829180734</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4266841296.962498</v>
+        <v>2723188898.460997</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1158870442383542</v>
+        <v>0.1092916980035265</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03643897146221588</v>
+        <v>0.03108376526317475</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>199</v>
+      </c>
+      <c r="J42" t="n">
+        <v>454</v>
+      </c>
+      <c r="K42" t="n">
+        <v>20.36081824107386</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2754015943.12154</v>
+        <v>2724101906.554597</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1672202896719427</v>
+        <v>0.1823092374343235</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01933944167214866</v>
+        <v>0.01892391568338825</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1667133900.863855</v>
+        <v>1506391997.971636</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08808205279704812</v>
+        <v>0.06767888728883836</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02319694659157481</v>
+        <v>0.03170413185601251</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2509149348.371251</v>
+        <v>2421808601.640863</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1909633061727037</v>
+        <v>0.1608267418679273</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05349198530726843</v>
+        <v>0.05312127192004536</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3878843413.453024</v>
+        <v>3988875939.574116</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1422236714124077</v>
+        <v>0.1146051137325221</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06062394687006058</v>
+        <v>0.05032227625889937</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>270</v>
+      </c>
+      <c r="J46" t="n">
+        <v>454</v>
+      </c>
+      <c r="K46" t="n">
+        <v>35.15247398016334</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4914218038.504555</v>
+        <v>3218546830.93271</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1844989438783422</v>
+        <v>0.1926874764096528</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04416071705673912</v>
+        <v>0.03844245794309904</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>205</v>
+      </c>
+      <c r="J47" t="n">
+        <v>453</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4006692602.80356</v>
+        <v>3039979616.996197</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1081783611903589</v>
+        <v>0.09490881422338195</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03167586219335785</v>
+        <v>0.03913710798757761</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>227</v>
+      </c>
+      <c r="J48" t="n">
+        <v>450</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1683254325.552018</v>
+        <v>1836880967.914555</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1363135450648047</v>
+        <v>0.1330491912871218</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03689214027164651</v>
+        <v>0.04168765980639582</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2657343968.010571</v>
+        <v>2699135521.046982</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1783487728688559</v>
+        <v>0.1557099486150199</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05301384228247834</v>
+        <v>0.0433767526032283</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>162</v>
+      </c>
+      <c r="J50" t="n">
+        <v>451</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1214508556.141638</v>
+        <v>1407288298.378015</v>
       </c>
       <c r="F51" t="n">
-        <v>0.119968870426435</v>
+        <v>0.1455331849172174</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0532072455793024</v>
+        <v>0.04260413678232412</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3697047690.191538</v>
+        <v>5276698648.552631</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1352000888366394</v>
+        <v>0.1361152477971501</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03761294017908531</v>
+        <v>0.0557099446983096</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>258</v>
+      </c>
+      <c r="J52" t="n">
+        <v>455</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2950589047.089625</v>
+        <v>3576688345.276263</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1711361731112019</v>
+        <v>0.1312791513663189</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0285313236158593</v>
+        <v>0.0226360739109811</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>68</v>
+      </c>
+      <c r="J53" t="n">
+        <v>455</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3678471246.787535</v>
+        <v>4333551129.534501</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1171418345649044</v>
+        <v>0.1120918307163165</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05057214533553406</v>
+        <v>0.03836207202781</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>240</v>
+      </c>
+      <c r="J54" t="n">
+        <v>455</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3700282939.366251</v>
+        <v>3757016958.250333</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1822945815810345</v>
+        <v>0.1756078360241503</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02402804308771661</v>
+        <v>0.0217034298124223</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>226</v>
+      </c>
+      <c r="J55" t="n">
+        <v>454</v>
+      </c>
+      <c r="K55" t="n">
+        <v>35.15134004216097</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1384228875.73881</v>
+        <v>1475879292.224166</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1536024276769487</v>
+        <v>0.1568015955072972</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04306280746087567</v>
+        <v>0.04367768578699602</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3127830207.619508</v>
+        <v>2773916876.156418</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1547803572490991</v>
+        <v>0.1211110679153857</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02749195740632206</v>
+        <v>0.02420156941158002</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>196</v>
+      </c>
+      <c r="J57" t="n">
+        <v>452</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2477,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1521713639.357465</v>
+        <v>1416913987.167366</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1795754017724157</v>
+        <v>0.1358078630448578</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03067363269386094</v>
+        <v>0.03797016080157766</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5118768799.821543</v>
+        <v>3651726787.596654</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1197109068815911</v>
+        <v>0.08009810777769735</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03624564418400129</v>
+        <v>0.03107423910245289</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>223</v>
+      </c>
+      <c r="J59" t="n">
+        <v>454</v>
+      </c>
+      <c r="K59" t="n">
+        <v>32.29782196816872</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2543,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3324694454.969845</v>
+        <v>2603998532.269897</v>
       </c>
       <c r="F60" t="n">
-        <v>0.15541422700276</v>
+        <v>0.1934560444476842</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02743595864960118</v>
+        <v>0.0330443008683775</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>88</v>
+      </c>
+      <c r="J60" t="n">
+        <v>454</v>
+      </c>
+      <c r="K60" t="n">
+        <v>29.7114228189027</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3370186728.193375</v>
+        <v>2723885690.852471</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1390768236239346</v>
+        <v>0.1355481856858547</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02252009796030841</v>
+        <v>0.02064925171778801</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1577840066.911927</v>
+        <v>1366100410.785206</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1830199504980676</v>
+        <v>0.1174381440458793</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03170521853417375</v>
+        <v>0.03445079482360038</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3528410285.157096</v>
+        <v>5367499598.968857</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06518691290410868</v>
+        <v>0.09143602604826069</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03464325167175134</v>
+        <v>0.03562414251630781</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>227</v>
+      </c>
+      <c r="J63" t="n">
+        <v>455</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5081863921.410533</v>
+        <v>4395457978.550285</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1798607142988335</v>
+        <v>0.1206938767523493</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02607632557573022</v>
+        <v>0.03569230303280234</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>228</v>
+      </c>
+      <c r="J64" t="n">
+        <v>454</v>
+      </c>
+      <c r="K64" t="n">
+        <v>35.88808543819096</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3764028847.602927</v>
+        <v>6017016353.56346</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1461324479417489</v>
+        <v>0.1624199267554657</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03177419127072532</v>
+        <v>0.03006789110898068</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>325</v>
+      </c>
+      <c r="J65" t="n">
+        <v>454</v>
+      </c>
+      <c r="K65" t="n">
+        <v>35.14289522132897</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4918374675.489194</v>
+        <v>4461609331.143515</v>
       </c>
       <c r="F66" t="n">
-        <v>0.13516369976923</v>
+        <v>0.1535278511166028</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03484196547194375</v>
+        <v>0.04908739026989026</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>224</v>
+      </c>
+      <c r="J66" t="n">
+        <v>455</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,16 +2800,25 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2803877935.236454</v>
+        <v>2803962704.212136</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08201970901802917</v>
+        <v>0.08816422561505127</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03360250609518929</v>
+        <v>0.03800862185726399</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>12</v>
+      </c>
+      <c r="J67" t="n">
+        <v>455</v>
+      </c>
+      <c r="K67" t="n">
+        <v>48.16772886131238</v>
       </c>
     </row>
     <row r="68">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5989351043.287861</v>
+        <v>3963985495.686129</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1311430367756976</v>
+        <v>0.1486955177426925</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03582465282182003</v>
+        <v>0.03898700670665978</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>247</v>
+      </c>
+      <c r="J68" t="n">
+        <v>455</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1524773874.036269</v>
+        <v>2318282822.1561</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1681482913747593</v>
+        <v>0.1729068789945816</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04804925835890008</v>
+        <v>0.05157922141542255</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3427841965.807286</v>
+        <v>3185591971.632025</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06822362334215662</v>
+        <v>0.08157763899998989</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03579703350268788</v>
+        <v>0.03819076603533163</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>66</v>
+      </c>
+      <c r="J70" t="n">
+        <v>450</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3491972208.75744</v>
+        <v>4311912524.858797</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1627294026849274</v>
+        <v>0.1853697350278826</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02773860384184295</v>
+        <v>0.02101430431443534</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>311</v>
+      </c>
+      <c r="J71" t="n">
+        <v>454</v>
+      </c>
+      <c r="K71" t="n">
+        <v>33.03865300120718</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2084211730.226025</v>
+        <v>2073935843.934476</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08406666472942255</v>
+        <v>0.06916839594373661</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04856764524990621</v>
+        <v>0.03403856843468763</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3008,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2996600422.310235</v>
+        <v>2424387798.340425</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07837428738851607</v>
+        <v>0.1053407151797987</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05213875395013991</v>
+        <v>0.04457843567315455</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>454</v>
+      </c>
+      <c r="K73" t="n">
+        <v>33.41492665626246</v>
       </c>
     </row>
     <row r="74">
@@ -2502,16 +3051,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2609875354.081122</v>
+        <v>3331856895.862234</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1486805003894151</v>
+        <v>0.1266456723244355</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02784424851885873</v>
+        <v>0.03375337796927166</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>132</v>
+      </c>
+      <c r="J74" t="n">
+        <v>455</v>
+      </c>
+      <c r="K74" t="n">
+        <v>37.98177810581861</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2296268715.72801</v>
+        <v>2337767450.632166</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1533616028228546</v>
+        <v>0.1473790121840801</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0301352084115981</v>
+        <v>0.02718278614533581</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4813835114.897551</v>
+        <v>4876821579.668464</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08935686384563131</v>
+        <v>0.1083612019231061</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02988757011763117</v>
+        <v>0.02587129697916648</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>217</v>
+      </c>
+      <c r="J76" t="n">
+        <v>455</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2140793925.780173</v>
+        <v>1811108575.341915</v>
       </c>
       <c r="F77" t="n">
-        <v>0.134680433211497</v>
+        <v>0.1348000959541288</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01910796561950101</v>
+        <v>0.02086586778518146</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4402063027.243351</v>
+        <v>3878761226.088968</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09080685485390838</v>
+        <v>0.0885643170222124</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05285427598527161</v>
+        <v>0.0489578579996947</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>227</v>
+      </c>
+      <c r="J78" t="n">
+        <v>454</v>
+      </c>
+      <c r="K78" t="n">
+        <v>32.62009474301821</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1822189842.68138</v>
+        <v>1801348976.444177</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1682795846720116</v>
+        <v>0.1289179766549232</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02842468313073093</v>
+        <v>0.03801487881899335</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3265,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5176582075.757261</v>
+        <v>4807857651.58175</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07889003367463572</v>
+        <v>0.07255865898390569</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02762450542516823</v>
+        <v>0.03868376515517495</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>222</v>
+      </c>
+      <c r="J80" t="n">
+        <v>454</v>
+      </c>
+      <c r="K80" t="n">
+        <v>30.24250304155142</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3302,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5163022924.721264</v>
+        <v>5066644812.353555</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1291988198311631</v>
+        <v>0.08990046763962813</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03075038502668545</v>
+        <v>0.02247853642295739</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>212</v>
+      </c>
+      <c r="J81" t="n">
+        <v>454</v>
+      </c>
+      <c r="K81" t="n">
+        <v>33.14279790220438</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4812538999.712072</v>
+        <v>3983692378.207082</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1355314798791726</v>
+        <v>0.1810239237726493</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02737860258126822</v>
+        <v>0.027549639438311</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>302</v>
+      </c>
+      <c r="J82" t="n">
+        <v>455</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2338637114.077339</v>
+        <v>1947364242.339494</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1045201996239128</v>
+        <v>0.1198024547885</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04042895493525755</v>
+        <v>0.03487834044340728</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1627621720.636672</v>
+        <v>2092081919.888194</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1017019084477462</v>
+        <v>0.09301885630273378</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04406321872605488</v>
+        <v>0.04805182067334297</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2666098103.94521</v>
+        <v>3188131821.977705</v>
       </c>
       <c r="F85" t="n">
-        <v>0.148030618914343</v>
+        <v>0.1808544042764531</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05339078653787789</v>
+        <v>0.04675623547668697</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2743511762.227047</v>
+        <v>2191038182.550368</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1686733284357782</v>
+        <v>0.1678187071926192</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01942048676623459</v>
+        <v>0.02626912679606291</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>953694273.5951607</v>
+        <v>1204985940.981171</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1542216964714916</v>
+        <v>0.1533476225277252</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03841600905429158</v>
+        <v>0.04162948777187721</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3185114205.477596</v>
+        <v>2491469275.452173</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1619472656980807</v>
+        <v>0.1528290589777521</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0278588100207988</v>
+        <v>0.03341365815719528</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3425910970.966711</v>
+        <v>2499159948.959939</v>
       </c>
       <c r="F89" t="n">
-        <v>0.160042951146039</v>
+        <v>0.156689537216252</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02551707886101858</v>
+        <v>0.03198998672702179</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1628012240.346895</v>
+        <v>1752348055.066522</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1185910376586017</v>
+        <v>0.1176709804116507</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04821181356374861</v>
+        <v>0.05234890398247637</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1820492366.494608</v>
+        <v>1978921875.896873</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1685961226599695</v>
+        <v>0.1335770874672606</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04240194627546338</v>
+        <v>0.05248544195447025</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2638956859.774404</v>
+        <v>2216126941.40782</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07673049455919786</v>
+        <v>0.08484103725885025</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0394237235588477</v>
+        <v>0.03128558431689413</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4496573955.057771</v>
+        <v>5035712961.977889</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1110665606617904</v>
+        <v>0.1194408169864015</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03675097480617865</v>
+        <v>0.04906317074747266</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>218</v>
+      </c>
+      <c r="J93" t="n">
+        <v>455</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1715322770.905932</v>
+        <v>2490142591.357348</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1143490286612378</v>
+        <v>0.1478855226898581</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04290100680761144</v>
+        <v>0.03456699485005924</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2756083152.742477</v>
+        <v>3215277715.909958</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1048316068183646</v>
+        <v>0.122088601819736</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04485366118634745</v>
+        <v>0.0495828024910141</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2247920196.463336</v>
+        <v>1821977643.778145</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1008643982683743</v>
+        <v>0.09244063171058747</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03321538723507707</v>
+        <v>0.04339483845234626</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3310987649.402369</v>
+        <v>4781310352.200189</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1727562356636674</v>
+        <v>0.1385947864907568</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02290296986186804</v>
+        <v>0.0210208372041883</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>237</v>
+      </c>
+      <c r="J97" t="n">
+        <v>455</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3275012016.826146</v>
+        <v>2894523991.589887</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1130503592476362</v>
+        <v>0.09384154466637126</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02842916986008896</v>
+        <v>0.02028238295422996</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>114</v>
+      </c>
+      <c r="J98" t="n">
+        <v>449</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2847353861.197021</v>
+        <v>2818748109.792525</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1282976305438056</v>
+        <v>0.131673431799465</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0286119500936954</v>
+        <v>0.03080508583122074</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2999541079.132009</v>
+        <v>4304943587.539412</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1247685963463599</v>
+        <v>0.1780179036999059</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01765488975214568</v>
+        <v>0.02549698640606888</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>212</v>
+      </c>
+      <c r="J100" t="n">
+        <v>454</v>
+      </c>
+      <c r="K100" t="n">
+        <v>33.97911167134667</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3092661772.299279</v>
+        <v>3223431117.070836</v>
       </c>
       <c r="F101" t="n">
-        <v>0.204881173902007</v>
+        <v>0.1493785908652526</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0403204609128795</v>
+        <v>0.04874652714386329</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
